--- a/TAP_POM_Framework/data/TC0006.xlsx
+++ b/TAP_POM_Framework/data/TC0006.xlsx
@@ -54,10 +54,10 @@
     <t>anu</t>
   </si>
   <si>
-    <t>abianu@thales.com</t>
-  </si>
-  <si>
     <t>Abirami@1</t>
+  </si>
+  <si>
+    <t>abianu123@thales.com</t>
   </si>
 </sst>
 </file>
@@ -102,9 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -389,7 +390,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,18 +440,18 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
